--- a/Dokumente/Zeitplan.xlsx
+++ b/Dokumente/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\BBBaden\Informatik\M306\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\BBBaden\Informatik\M306\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA9FDC7-7627-4703-90E9-7E7A7FBE77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BDEE3-C22E-46E3-AEB2-28139939659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5753B609-2584-4D0A-ADB3-CC67786908B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Arbeitsschritte</t>
   </si>
@@ -132,13 +132,25 @@
   </si>
   <si>
     <t>Arbeitspakete</t>
+  </si>
+  <si>
+    <t>Ent.</t>
+  </si>
+  <si>
+    <t>Präferenzmatrix</t>
+  </si>
+  <si>
+    <t>Vormittag</t>
+  </si>
+  <si>
+    <t>Nachmittag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +161,13 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -685,19 +704,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -804,13 +810,116 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,173 +975,194 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,7 +1471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1349,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF0878-6ECA-4E93-8D6D-157C93C105A6}">
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1374,142 +1504,156 @@
     <col min="15" max="15" width="5.453125" style="3" customWidth="1"/>
     <col min="16" max="16" width="5.54296875" style="2" customWidth="1"/>
     <col min="17" max="17" width="5.453125" customWidth="1"/>
-    <col min="18" max="18" width="5.26953125" customWidth="1"/>
-    <col min="19" max="19" width="4.81640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="4.453125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="5.1796875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="26" width="5.1796875" customWidth="1"/>
-    <col min="27" max="27" width="4.26953125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="4.81640625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.81640625" customWidth="1"/>
-    <col min="30" max="30" width="5.453125" customWidth="1"/>
+    <col min="18" max="22" width="5.26953125" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="4.7265625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.81640625" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="4.453125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="5.1796875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.7265625" customWidth="1"/>
+    <col min="30" max="30" width="5.1796875" customWidth="1"/>
     <col min="31" max="31" width="4.26953125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="4.81640625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="5.81640625" customWidth="1"/>
+    <col min="34" max="34" width="5.453125" customWidth="1"/>
+    <col min="35" max="35" width="4.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="53">
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="59">
         <v>44908</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="52">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="58">
         <v>44915</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="59">
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="88">
         <v>44936</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="52">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="58">
         <v>44943</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="59">
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="58">
+        <v>44947</v>
+      </c>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="88">
         <v>44950</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="59">
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="88">
         <v>44957</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="52">
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="58">
         <v>44978</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="54"/>
-    </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="55" t="s">
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="100"/>
+    </row>
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="75"/>
+      <c r="L2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="55" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="55" t="s">
+      <c r="S2" s="57"/>
+      <c r="T2" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="75"/>
+      <c r="X2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55" t="s">
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="55" t="s">
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="55" t="s">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55" t="s">
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" s="12" customFormat="1" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="95">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="76" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="8"/>
@@ -1527,103 +1671,114 @@
       <c r="P3" s="2"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3" s="3"/>
+      <c r="S3"/>
       <c r="T3" s="2"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
       <c r="Y3"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="1"/>
+      <c r="Z3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="13"/>
-    </row>
-    <row r="4" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="75"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="13"/>
+    </row>
+    <row r="4" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="79"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="7"/>
-      <c r="AE4" s="27"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
-      <c r="B5" s="70">
+      <c r="T4" s="2"/>
+      <c r="AI4" s="27"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A5" s="79"/>
+      <c r="B5" s="98">
         <v>1.2</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="83" t="s">
         <v>5</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="14"/>
-      <c r="AE5" s="27"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="84"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="69"/>
+      <c r="T5" s="2"/>
+      <c r="AI5" s="27"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A6" s="79"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="97"/>
       <c r="D6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="15"/>
-      <c r="AE6" s="27"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="72">
+      <c r="T6" s="2"/>
+      <c r="AI6" s="27"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A7" s="80"/>
+      <c r="B7" s="87">
         <v>1.3</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D7"/>
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
-      <c r="AE7" s="27"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
+      <c r="T7" s="2"/>
+      <c r="AI7" s="27"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A8" s="80"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="77"/>
       <c r="D8"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="AE8" s="27"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="76">
+      <c r="T8" s="2"/>
+      <c r="AI8" s="27"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A9" s="80"/>
+      <c r="B9" s="84">
         <v>1.4</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="83" t="s">
         <v>7</v>
       </c>
       <c r="D9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="14"/>
-      <c r="AE9" s="27"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="75"/>
+      <c r="T9" s="2"/>
+      <c r="AI9" s="27"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A10" s="80"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="77"/>
       <c r="D10"/>
       <c r="J10" s="7"/>
       <c r="K10" s="15"/>
-      <c r="AE10" s="27"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
-      <c r="B11" s="72">
+      <c r="T10" s="2"/>
+      <c r="AI10" s="27"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A11" s="81"/>
+      <c r="B11" s="87">
         <v>1.5</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D11"/>
@@ -1634,12 +1789,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="14"/>
-      <c r="AE11" s="27"/>
-    </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="78"/>
+      <c r="T11" s="2"/>
+      <c r="AI11" s="27"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="82"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -1655,7 +1811,7 @@
       <c r="P12" s="23"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
@@ -1667,105 +1823,117 @@
       <c r="AB12" s="23"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="28"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="86" t="s">
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="28"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="53">
         <v>2.1</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D13"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="AE13" s="27"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="40"/>
+      <c r="T13" s="2"/>
+      <c r="AI13" s="27"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="92"/>
       <c r="D14"/>
       <c r="N14" s="7"/>
       <c r="O14" s="15"/>
-      <c r="AE14" s="27"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
-      <c r="B15" s="45">
+      <c r="T14" s="2"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
+      <c r="B15" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="66" t="s">
         <v>28</v>
       </c>
       <c r="D15"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9"/>
-      <c r="AE15" s="27"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="74"/>
+      <c r="T15" s="2"/>
+      <c r="AI15" s="27"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="67"/>
       <c r="D16"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
-      <c r="AE16" s="27"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="87"/>
-      <c r="B17" s="45">
+      <c r="T16" s="2"/>
+      <c r="AI16" s="27"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="61"/>
+      <c r="B17" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="34"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="AE17" s="27"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="87"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="93"/>
+      <c r="T17" s="2"/>
+      <c r="AI17" s="27"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="34"/>
       <c r="N18" s="7"/>
       <c r="O18" s="15"/>
-      <c r="AE18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
-      <c r="B19" s="45">
+      <c r="T18" s="2"/>
+      <c r="AI18" s="27"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
+      <c r="B19" s="64">
         <v>2.4</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="66" t="s">
         <v>27</v>
       </c>
       <c r="D19"/>
       <c r="L19" s="10"/>
       <c r="M19" s="9"/>
-      <c r="AE19" s="27"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="74"/>
+      <c r="T19" s="2"/>
+      <c r="AI19" s="27"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="67"/>
       <c r="D20"/>
       <c r="K20"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="AE20" s="27"/>
-    </row>
-    <row r="21" spans="1:31" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
-      <c r="B21" s="45">
+      <c r="T20" s="2"/>
+      <c r="AI20" s="27"/>
+    </row>
+    <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
+      <c r="B21" s="64">
         <v>2.5</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="62" t="s">
         <v>31</v>
       </c>
       <c r="D21"/>
@@ -1783,7 +1951,7 @@
       <c r="P21" s="2"/>
       <c r="Q21"/>
       <c r="R21"/>
-      <c r="S21" s="3"/>
+      <c r="S21"/>
       <c r="T21" s="2"/>
       <c r="U21"/>
       <c r="V21"/>
@@ -1795,293 +1963,337 @@
       <c r="AB21" s="2"/>
       <c r="AC21"/>
       <c r="AD21"/>
-      <c r="AE21" s="27"/>
-    </row>
-    <row r="22" spans="1:31" s="19" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="88"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21" s="27"/>
+    </row>
+    <row r="22" spans="1:35" s="19" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="61"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="63"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22"/>
       <c r="N22" s="32"/>
       <c r="O22" s="33"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="28"/>
-    </row>
-    <row r="23" spans="1:31" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
+      <c r="P22" s="2"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22" s="2"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22" s="27"/>
+    </row>
+    <row r="23" spans="1:35" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="53">
+        <v>3.1</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="43"/>
+    </row>
+    <row r="24" spans="1:35" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="52"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="45"/>
+    </row>
+    <row r="25" spans="1:35" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="41">
-        <v>3.1</v>
-      </c>
-      <c r="C23" s="64" t="s">
+      <c r="B25" s="65">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C25" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D23"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="AE23" s="27"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="40"/>
-      <c r="D24"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
-      <c r="AE24" s="27"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="C25" s="43" t="s">
+      <c r="D25"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="14"/>
+      <c r="T25" s="2"/>
+      <c r="AI25" s="27"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A26" s="80"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="92"/>
+      <c r="D26"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="T26" s="2"/>
+      <c r="AI26" s="27"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A27" s="80"/>
+      <c r="B27" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="C27" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D25"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="14"/>
-      <c r="AE25" s="27"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="40"/>
-      <c r="D26"/>
-      <c r="AE26" s="27"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="45">
-        <v>3.3</v>
-      </c>
-      <c r="C27" s="43" t="s">
+      <c r="D27"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="2"/>
+      <c r="AI27" s="27"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A28" s="80"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="92"/>
+      <c r="D28"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="AI28" s="27"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A29" s="80"/>
+      <c r="B29" s="64">
+        <v>4.3</v>
+      </c>
+      <c r="C29" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D27"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27"/>
-      <c r="AE27" s="27"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="40"/>
-      <c r="D28"/>
-      <c r="AE28" s="27"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="45">
-        <v>3.4</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>15</v>
-      </c>
       <c r="D29"/>
-      <c r="X29" s="10"/>
+      <c r="T29" s="2"/>
+      <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="14"/>
-      <c r="AE29" s="27"/>
-    </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="48"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="28"/>
-    </row>
-    <row r="31" spans="1:31" s="12" customFormat="1" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="41">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>17</v>
+      <c r="AA29" s="9"/>
+      <c r="AI29" s="27"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A30" s="80"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="92"/>
+      <c r="D30"/>
+      <c r="T30" s="2"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="15"/>
+      <c r="AI30" s="27"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A31" s="80"/>
+      <c r="B31" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C31" s="106" t="s">
+        <v>15</v>
       </c>
       <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="2"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31" s="3"/>
       <c r="T31" s="2"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31" s="3"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31" s="3"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
-      <c r="AE31" s="27"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="40"/>
-      <c r="D32"/>
-      <c r="X32"/>
-      <c r="AE32" s="27"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="45">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="50" t="s">
+      <c r="AE31" s="14"/>
+      <c r="AI31" s="27"/>
+    </row>
+    <row r="32" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="82"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="28"/>
+    </row>
+    <row r="33" spans="1:35" s="12" customFormat="1" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="65">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33" s="2"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="27"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A34" s="80"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="92"/>
+      <c r="D34"/>
+      <c r="T34" s="2"/>
+      <c r="AB34"/>
+      <c r="AI34" s="27"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A35" s="80"/>
+      <c r="B35" s="64">
+        <v>5.2</v>
+      </c>
+      <c r="C35" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D33"/>
-      <c r="AA33"/>
-      <c r="AE33" s="29"/>
-    </row>
-    <row r="34" spans="1:31" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="48"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="28"/>
-    </row>
-    <row r="35" spans="1:31" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="41">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>20</v>
-      </c>
       <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="2"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="2"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35" s="3"/>
       <c r="T35" s="2"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="2"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35" s="29"/>
-    </row>
-    <row r="36" spans="1:31" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="48"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="44"/>
+      <c r="AE35"/>
+      <c r="AI35" s="29"/>
+    </row>
+    <row r="36" spans="1:35" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="82"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -2097,7 +2309,7 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
-      <c r="S36" s="25"/>
+      <c r="S36" s="24"/>
       <c r="T36" s="23"/>
       <c r="U36" s="24"/>
       <c r="V36" s="24"/>
@@ -2105,147 +2317,314 @@
       <c r="X36" s="23"/>
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
+      <c r="AA36" s="25"/>
       <c r="AB36" s="23"/>
       <c r="AC36" s="24"/>
       <c r="AD36" s="24"/>
-      <c r="AE36" s="28"/>
-    </row>
-    <row r="37" spans="1:31" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="47" t="s">
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="28"/>
+    </row>
+    <row r="37" spans="1:35" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="65">
+        <v>6.1</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="2"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37" s="2"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37" s="29"/>
+    </row>
+    <row r="38" spans="1:35" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="82"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="28"/>
+    </row>
+    <row r="39" spans="1:35" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="41">
-        <v>6.1</v>
-      </c>
-      <c r="C37" s="39" t="s">
+      <c r="B39" s="65">
+        <v>7.1</v>
+      </c>
+      <c r="C39" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="29"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="15"/>
-      <c r="AA38"/>
-      <c r="AE38" s="27"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-      <c r="B39" s="45">
-        <v>6.2</v>
-      </c>
-      <c r="C39" s="43" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="29"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A40" s="80"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="15"/>
+      <c r="AE40"/>
+      <c r="AI40" s="27"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A41" s="80"/>
+      <c r="B41" s="64">
+        <v>7.2</v>
+      </c>
+      <c r="C41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D39"/>
-      <c r="K39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="AA39" s="9"/>
-      <c r="AE39" s="29"/>
-    </row>
-    <row r="40" spans="1:31" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="48"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="28"/>
-    </row>
-    <row r="41" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="D41"/>
+      <c r="K41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="2"/>
+      <c r="W41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AE41" s="9"/>
+      <c r="AI41" s="29"/>
+    </row>
+    <row r="42" spans="1:35" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="82"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="24"/>
+      <c r="AI42" s="28"/>
+    </row>
+    <row r="43" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B46" s="32"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B48" s="32"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="72">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
@@ -2257,61 +2636,6 @@
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2319,6 +2643,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005799E52C7C2E8145B8BCD3EDC4958089" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="07feb37cbdcb0f6ce83e94b9b6d455b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d985a9cd-0765-4b5f-9c1a-fc99987bb2a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5487b576dec082611a3de45102f90ed7" ns2:_="">
     <xsd:import namespace="d985a9cd-0765-4b5f-9c1a-fc99987bb2a7"/>
@@ -2450,12 +2780,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2466,6 +2790,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9762A9-5717-4DEE-9F29-6DEBFB7EF340}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE70B6A-7EC2-4DE8-9590-CC9005C91EC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2483,15 +2816,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9762A9-5717-4DEE-9F29-6DEBFB7EF340}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011F87D-F122-430E-9161-18C2A9FA3A03}">
   <ds:schemaRefs>
